--- a/src/test/resources/rest_infos.xlsx
+++ b/src/test/resources/rest_infos.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\YangWang\IdeaProjects\MavenHttpDemo\src\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yawa1hz1\IdeaProjects\MavenHttpDemo\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -87,19 +87,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{"status":3,"msg":"帐号密码无效","data":null,"success":false}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"account":"belle","password":"belle"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>{"account":"belle","password":"belles"}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>{}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"account":"belle1","password":"belle1"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"status":3,"msg":"帐号密码无效","data":null,"success":false1}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -525,7 +525,7 @@
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -578,7 +578,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D2" t="s">
         <v>17</v>
@@ -592,10 +592,10 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D3" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
@@ -606,7 +606,7 @@
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D4" t="s">
         <v>17</v>

--- a/src/test/resources/rest_infos.xlsx
+++ b/src/test/resources/rest_infos.xlsx
@@ -99,7 +99,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{"status":3,"msg":"帐号密码无效","data":null,"success":false1}</t>
+    <t>{"status":3,"msg":"帐号密码无效","data":null,"success":false}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -525,7 +525,7 @@
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
